--- a/LoadTimeSheet.xlsx
+++ b/LoadTimeSheet.xlsx
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C1" s="8" t="inlineStr">
         <is>
-          <t>2024-04-02_21:11:38</t>
+          <t>2024-04-02_22:06:27</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="C2" s="11" t="n">
-        <v>16909</v>
+        <v>10649</v>
       </c>
       <c r="D2" s="20" t="n">
         <v>7180</v>
